--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rspo2-Lgr6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rspo2-Lgr6.xlsx
@@ -79,13 +79,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Rspo2</t>
   </si>
   <si>
     <t>Lgr6</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -516,10 +516,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,10 +537,10 @@
         <v>5.628527</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9891011365778073</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9927075980877177</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,10 +555,10 @@
         <v>0.5260359999999999</v>
       </c>
       <c r="O2">
-        <v>0.414882210303281</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.5154067662594317</v>
+        <v>1</v>
       </c>
       <c r="Q2">
         <v>0.3289786476635556</v>
@@ -567,72 +567,72 @@
         <v>2.960807828972</v>
       </c>
       <c r="S2">
-        <v>0.414882210303281</v>
+        <v>0.9891011365778073</v>
       </c>
       <c r="T2">
-        <v>0.5154067662594317</v>
+        <v>0.9927075980877177</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.876175666666667</v>
+        <v>0.0206735</v>
       </c>
       <c r="H3">
-        <v>5.628527</v>
+        <v>0.041347</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.01089886342219268</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.007292401912282354</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.2472935</v>
+        <v>0.1753453333333333</v>
       </c>
       <c r="N3">
-        <v>0.494587</v>
+        <v>0.5260359999999999</v>
       </c>
       <c r="O3">
-        <v>0.585117789696719</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.4845932337405682</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.4639660472248333</v>
+        <v>0.003625001748666667</v>
       </c>
       <c r="R3">
-        <v>2.783796283349</v>
+        <v>0.021750010492</v>
       </c>
       <c r="S3">
-        <v>0.585117789696719</v>
+        <v>0.01089886342219268</v>
       </c>
       <c r="T3">
-        <v>0.4845932337405682</v>
+        <v>0.007292401912282354</v>
       </c>
     </row>
   </sheetData>
